--- a/ZFNet.xlsx
+++ b/ZFNet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\DL at griffith\Deep_learning_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7E9997-F39F-446A-9F90-C074421F6311}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737EC4F3-0CE3-4FC4-AC5E-6BA72A959648}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{46796280-4613-4C87-8C5E-BA64503C1007}"/>
   </bookViews>
@@ -240,7 +240,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -294,13 +294,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -354,13 +354,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -420,7 +420,7 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -474,13 +474,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -534,13 +534,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -600,7 +600,7 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -654,13 +654,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -720,7 +720,7 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -774,13 +774,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -894,13 +894,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -954,13 +954,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1020,7 +1020,7 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1074,13 +1074,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1140,7 +1140,7 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -1193,7 +1193,7 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -1246,7 +1246,7 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -1299,7 +1299,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1352,7 +1352,7 @@
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -1697,67 +1697,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB9B4A5-F38F-4D3C-ADF0-05C73ADA030A}">
-  <dimension ref="B2:AT58"/>
+  <dimension ref="B2:AW58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY6" sqref="AY6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="BG22" sqref="BG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="52" max="52" width="7" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>3</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AS3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
       <c r="AS4" s="4"/>
       <c r="AT4" s="4"/>
-    </row>
-    <row r="5" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+    </row>
+    <row r="5" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1766,26 +1766,26 @@
       <c r="I5" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-      <c r="AK5" t="s">
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AM5" t="s">
         <v>5</v>
       </c>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
-    </row>
-    <row r="6" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+    </row>
+    <row r="6" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1794,25 +1794,25 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
-    </row>
-    <row r="7" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+    </row>
+    <row r="7" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1821,25 +1821,25 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
-    </row>
-    <row r="8" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+    </row>
+    <row r="8" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1848,585 +1848,585 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
-    </row>
-    <row r="9" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+    </row>
+    <row r="9" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
-    </row>
-    <row r="10" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+    </row>
+    <row r="10" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>2</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q12" t="s">
+    <row r="12" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>7</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AS12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q13" t="s">
+    <row r="13" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
         <v>10</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AS13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
-    </row>
-    <row r="15" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+    </row>
+    <row r="15" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AK15" t="s">
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AM15" t="s">
         <v>5</v>
       </c>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
-    </row>
-    <row r="16" spans="2:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+    </row>
+    <row r="16" spans="2:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
-    </row>
-    <row r="17" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+    </row>
+    <row r="17" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
-    </row>
-    <row r="18" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+    </row>
+    <row r="18" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
-    </row>
-    <row r="19" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+    </row>
+    <row r="19" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
-    </row>
-    <row r="20" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+    </row>
+    <row r="20" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20">
         <v>4</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>5</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q22" t="s">
+    <row r="22" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
         <v>15</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AG22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-    </row>
-    <row r="25" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+    </row>
+    <row r="25" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+    </row>
+    <row r="26" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+    </row>
+    <row r="27" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+    </row>
+    <row r="28" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-    </row>
-    <row r="29" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+    </row>
+    <row r="29" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-    </row>
-    <row r="30" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+    </row>
+    <row r="30" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30">
         <v>7</v>
       </c>
-      <c r="AE30">
+      <c r="AG30">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q32" t="s">
+    <row r="32" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
         <v>16</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AG32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>12</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+    </row>
+    <row r="35" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-    </row>
-    <row r="36" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+    </row>
+    <row r="36" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-    </row>
-    <row r="37" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+    </row>
+    <row r="37" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-    </row>
-    <row r="38" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+    </row>
+    <row r="38" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
-    </row>
-    <row r="39" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+    </row>
+    <row r="39" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
-    </row>
-    <row r="40" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+    </row>
+    <row r="40" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>9</v>
       </c>
-      <c r="AE40">
+      <c r="AG40">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q42" t="s">
+    <row r="42" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S42" t="s">
         <v>19</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AG42" t="s">
         <v>18</v>
       </c>
-      <c r="AP42" t="s">
+      <c r="AS42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q43" t="s">
+    <row r="43" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S43" t="s">
         <v>20</v>
       </c>
-      <c r="AP43" t="s">
+      <c r="AS43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>29</v>
       </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
       <c r="AS44" s="4"/>
       <c r="AT44" s="4"/>
-    </row>
-    <row r="45" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+    </row>
+    <row r="45" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
-      <c r="AK45" t="s">
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AM45" t="s">
         <v>5</v>
       </c>
-      <c r="AP45" s="4"/>
-      <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
       <c r="AS45" s="4"/>
       <c r="AT45" s="4"/>
-    </row>
-    <row r="46" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4"/>
+    </row>
+    <row r="46" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
-      <c r="AK46" s="3"/>
-      <c r="AL46" s="3"/>
-      <c r="AP46" s="4"/>
-      <c r="AQ46" s="4"/>
-      <c r="AR46" s="4"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
       <c r="AS46" s="4"/>
       <c r="AT46" s="4"/>
-    </row>
-    <row r="47" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4"/>
+    </row>
+    <row r="47" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
-      <c r="AK47" s="3"/>
-      <c r="AL47" s="3"/>
-      <c r="AP47" s="4"/>
-      <c r="AQ47" s="4"/>
-      <c r="AR47" s="4"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
       <c r="AS47" s="4"/>
       <c r="AT47" s="4"/>
-    </row>
-    <row r="48" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4"/>
+    </row>
+    <row r="48" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
-      <c r="AP48" s="4"/>
-      <c r="AQ48" s="4"/>
-      <c r="AR48" s="4"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
       <c r="AS48" s="4"/>
       <c r="AT48" s="4"/>
-    </row>
-    <row r="49" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+    </row>
+    <row r="49" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
-      <c r="AP49" s="4"/>
-      <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
       <c r="AS49" s="4"/>
       <c r="AT49" s="4"/>
-    </row>
-    <row r="50" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+    </row>
+    <row r="50" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I50">
         <v>11</v>
       </c>
-      <c r="AE50">
+      <c r="AG50">
         <v>12</v>
       </c>
-      <c r="AP50">
+      <c r="AS50">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="X53" s="7"/>
-    </row>
-    <row r="54" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S53" s="6"/>
+      <c r="Z53" s="7"/>
+    </row>
+    <row r="54" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="X54" s="7"/>
-    </row>
-    <row r="55" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S54" s="6"/>
+      <c r="Z54" s="7"/>
+    </row>
+    <row r="55" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="X55" s="7"/>
-    </row>
-    <row r="56" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="6"/>
+      <c r="Z55" s="7"/>
+    </row>
+    <row r="56" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="X56" s="7"/>
-    </row>
-    <row r="57" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S56" s="6"/>
+      <c r="Z56" s="7"/>
+    </row>
+    <row r="57" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="X57" s="7"/>
-    </row>
-    <row r="58" spans="9:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S57" s="6"/>
+      <c r="Z57" s="7"/>
+    </row>
+    <row r="58" spans="9:49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>23</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="S58" t="s">
         <v>24</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Z58" t="s">
         <v>25</v>
       </c>
     </row>
